--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34471.06384320385</v>
+        <v>6821955.224221544</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34471.06384320385</v>
+        <v>6821955.224221544</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13808.82386447153</v>
+        <v>834735.0396477517</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808.82386447153</v>
+        <v>834735.0396477517</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113949777.5568</v>
+        <v>46736979.00763649</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11064.21345329885</v>
+        <v>1242277.156767521</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20141.15898976896</v>
+        <v>2155325.511008652</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29218.10452623904</v>
+        <v>3068373.865249784</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38701.58272845556</v>
+        <v>3940199.984452312</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48232.85224775183</v>
+        <v>4822871.556076064</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57507.53118988309</v>
+        <v>5746430.438575759</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66693.65922519521</v>
+        <v>6659199.558919332</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75879.78726050715</v>
+        <v>7571968.679262865</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85240.89350932832</v>
+        <v>8449995.702933325</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94648.01388823998</v>
+        <v>9337260.929378839</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104055.9522660119</v>
+        <v>10224526.15582428</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113463.4816443536</v>
+        <v>11111791.38226973</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122871.0110226963</v>
+        <v>11999056.60871499</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132278.1314016079</v>
+        <v>12886321.83516051</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141685.6607799504</v>
+        <v>13773587.06160575</v>
       </c>
     </row>
   </sheetData>
